--- a/doc/app/pg0171/エビデンス/No3.xlsx
+++ b/doc/app/pg0171/エビデンス/No3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05FD7E-7FA4-4876-927C-F6A16E50DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0B3E7-0D76-4E25-9C70-B0C28BAF36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
+    <sheet name="1回目" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -263,11 +263,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>引数表</a:t>
+            <a:t>パラメータ一覧の</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-            <a:t>3</a:t>
+            <a:t>No3</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
@@ -686,7 +686,7 @@
   <dimension ref="B2:EL6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BR1" sqref="BR1"/>
+      <selection activeCell="BB5" sqref="BB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
